--- a/loaded_influencer_data/alm_skin/alm_skin_video.xlsx
+++ b/loaded_influencer_data/alm_skin/alm_skin_video.xlsx
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/video/7385366024805190918</t>
         </is>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7368307727992589574</t>
         </is>
@@ -567,16 +567,16 @@
         <v>1400000</v>
       </c>
       <c r="C3" t="n">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33900</v>
+        <v>34000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.2675</v>
+        <v>4.282071428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>4.25</v>
+        <v>4.264285714285714</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0175</v>
+        <v>0.01778571428571429</v>
       </c>
       <c r="L3" t="n">
-        <v>2.421428571428572</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7418017217394085125</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
@@ -633,23 +633,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>#skincare #elf #nivea #sheabutter #kerastase #centellaasiatica #skin1004 #centellaasiatica</t>
+          <t>opinión súper honesta de mis contornos de ojos, un paso en el skincare que es infaltable! ✨
+la piel del contorno es mucho más sensible y es delgadita, es por eso que tiende a arrugarse más rápido.</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.358759430008382</v>
+        <v>4.351464435146443</v>
       </c>
       <c r="I4" t="n">
-        <v>4.191114836546522</v>
+        <v>4.184100418410042</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1676445934618609</v>
+        <v>0.1673640167364017</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7544006705783739</v>
+        <v>0.7531380753138075</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -661,7 +662,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7404188707110079749</t>
         </is>
@@ -670,10 +671,10 @@
         <v>41600</v>
       </c>
       <c r="C5" t="n">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -688,16 +689,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.795673076923077</v>
+        <v>2.800480769230769</v>
       </c>
       <c r="I5" t="n">
-        <v>2.769230769230769</v>
+        <v>2.771634615384615</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02644230769230769</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="L5" t="n">
         <v>1.894230769230769</v>
@@ -712,25 +713,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7393180821638663429</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="C6" t="n">
         <v>280</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -738,19 +739,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2.563636363636364</v>
+        <v>2.576576576576576</v>
       </c>
       <c r="I6" t="n">
-        <v>2.545454545454545</v>
+        <v>2.522522522522523</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01818181818181818</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.216216216216216</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -762,13 +763,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7387985394308156677</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233500</v>
+        <v>233600</v>
       </c>
       <c r="C7" t="n">
         <v>7467</v>
@@ -780,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4223</v>
+        <v>4219</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -788,19 +789,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.234261241970021</v>
+        <v>3.232876712328767</v>
       </c>
       <c r="I7" t="n">
-        <v>3.197858672376873</v>
+        <v>3.196489726027397</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03640256959314775</v>
+        <v>0.03638698630136986</v>
       </c>
       <c r="L7" t="n">
-        <v>1.808565310492505</v>
+        <v>1.806078767123288</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -812,13 +813,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/video/7380103308851105030</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="C8" t="n">
         <v>104</v>
@@ -839,10 +840,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.543409146490585</v>
+        <v>2.542787286063569</v>
       </c>
       <c r="I8" t="n">
-        <v>2.543409146490585</v>
+        <v>2.542787286063569</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.589630716556615</v>
+        <v>1.589242053789731</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -863,13 +864,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/video/7374975981393612038</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4461</v>
+        <v>4463</v>
       </c>
       <c r="C9" t="n">
         <v>56</v>
@@ -890,19 +891,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.300156915489801</v>
+        <v>1.299574277391889</v>
       </c>
       <c r="I9" t="n">
-        <v>1.255323918403945</v>
+        <v>1.254761371274927</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04483299708585519</v>
+        <v>0.04481290611696168</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1344989912575656</v>
+        <v>0.1344387183508851</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -914,25 +915,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7370887634303896838</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243800</v>
+        <v>244000</v>
       </c>
       <c r="C10" t="n">
         <v>13200</v>
       </c>
       <c r="D10" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6585</v>
+        <v>6583</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -941,19 +942,19 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.476210008203446</v>
+        <v>5.471311475409836</v>
       </c>
       <c r="I10" t="n">
-        <v>5.414273995077933</v>
+        <v>5.409836065573771</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06193601312551271</v>
+        <v>0.06147540983606558</v>
       </c>
       <c r="L10" t="n">
-        <v>2.70098441345365</v>
+        <v>2.697950819672131</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -965,7 +966,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alm_skin/photo/7370012621459721477</t>
         </is>
